--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H2">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I2">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J2">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N2">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O2">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P2">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q2">
-        <v>0.431872455328</v>
+        <v>0.2340724492226667</v>
       </c>
       <c r="R2">
-        <v>3.886852097952</v>
+        <v>2.106652043004</v>
       </c>
       <c r="S2">
-        <v>0.001769662811824633</v>
+        <v>0.001487374775640215</v>
       </c>
       <c r="T2">
-        <v>0.002100858610588432</v>
+        <v>0.001805406070559303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H3">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I3">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J3">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.672664</v>
       </c>
       <c r="O3">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P3">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q3">
-        <v>0.302054578016</v>
+        <v>0.1652245838106667</v>
       </c>
       <c r="R3">
-        <v>2.718491202144</v>
+        <v>1.487021254296</v>
       </c>
       <c r="S3">
-        <v>0.001237714392899467</v>
+        <v>0.001049892369186355</v>
       </c>
       <c r="T3">
-        <v>0.001469355021983564</v>
+        <v>0.001274380934655192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H4">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I4">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J4">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N4">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O4">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P4">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q4">
-        <v>4.857724753247999</v>
+        <v>3.392159727086334</v>
       </c>
       <c r="R4">
-        <v>43.719522779232</v>
+        <v>30.529437543777</v>
       </c>
       <c r="S4">
-        <v>0.01990526309295195</v>
+        <v>0.02155491955489066</v>
       </c>
       <c r="T4">
-        <v>0.02363057136389678</v>
+        <v>0.02616380434317004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H5">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I5">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J5">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N5">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O5">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P5">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q5">
-        <v>0.097991587656</v>
+        <v>0.048307441553</v>
       </c>
       <c r="R5">
-        <v>0.587949525936</v>
+        <v>0.289844649318</v>
       </c>
       <c r="S5">
-        <v>0.0004015353755653931</v>
+        <v>0.0003069616705437043</v>
       </c>
       <c r="T5">
-        <v>0.0003177889955743014</v>
+        <v>0.0002483975895001926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H6">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I6">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J6">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N6">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O6">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P6">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q6">
-        <v>5.352543229684</v>
+        <v>2.699621071012666</v>
       </c>
       <c r="R6">
-        <v>48.172889067156</v>
+        <v>24.296589639114</v>
       </c>
       <c r="S6">
-        <v>0.02193285676221586</v>
+        <v>0.01715429687750809</v>
       </c>
       <c r="T6">
-        <v>0.02603763308796368</v>
+        <v>0.02082223809765693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.35167</v>
       </c>
       <c r="I7">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J7">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N7">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O7">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P7">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q7">
-        <v>0.7886411730044445</v>
+        <v>0.7814208522355556</v>
       </c>
       <c r="R7">
-        <v>7.09777055704</v>
+        <v>7.032787670119999</v>
       </c>
       <c r="S7">
-        <v>0.003231576680850751</v>
+        <v>0.004965409934548999</v>
       </c>
       <c r="T7">
-        <v>0.003836372471850788</v>
+        <v>0.006027116625526731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.35167</v>
       </c>
       <c r="I8">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J8">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.672664</v>
       </c>
       <c r="O8">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P8">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q8">
         <v>0.5515810832088889</v>
@@ -948,10 +948,10 @@
         <v>4.96422974888</v>
       </c>
       <c r="S8">
-        <v>0.00226018704971443</v>
+        <v>0.003504931027165767</v>
       </c>
       <c r="T8">
-        <v>0.002683185403007478</v>
+        <v>0.004254357312610082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.35167</v>
       </c>
       <c r="I9">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J9">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N9">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O9">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P9">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q9">
-        <v>8.870678600293333</v>
+        <v>11.32429020870111</v>
       </c>
       <c r="R9">
-        <v>79.83610740264</v>
+        <v>101.91861187831</v>
       </c>
       <c r="S9">
-        <v>0.03634894941995142</v>
+        <v>0.07195833454294648</v>
       </c>
       <c r="T9">
-        <v>0.04315172521256311</v>
+        <v>0.08734450532499684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>1.35167</v>
       </c>
       <c r="I10">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J10">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N10">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O10">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P10">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q10">
-        <v>0.17894218462</v>
+        <v>0.1612681982566667</v>
       </c>
       <c r="R10">
-        <v>1.07365310772</v>
+        <v>0.96760918954</v>
       </c>
       <c r="S10">
-        <v>0.0007332427101611938</v>
+        <v>0.001024752169665782</v>
       </c>
       <c r="T10">
-        <v>0.0005803136623920097</v>
+        <v>0.0008292434958710293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.35167</v>
       </c>
       <c r="I11">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J11">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N11">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O11">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P11">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q11">
-        <v>9.774265339541111</v>
+        <v>9.012338722602221</v>
       </c>
       <c r="R11">
-        <v>87.96838805586999</v>
+        <v>81.11104850341999</v>
       </c>
       <c r="S11">
-        <v>0.04005153297205646</v>
+        <v>0.05726742010877391</v>
       </c>
       <c r="T11">
-        <v>0.04754725439749453</v>
+        <v>0.06951237146343796</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H12">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I12">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J12">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N12">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O12">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P12">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q12">
-        <v>0.2008667031377778</v>
+        <v>0.6471067903559999</v>
       </c>
       <c r="R12">
-        <v>1.80780032824</v>
+        <v>5.823961113204</v>
       </c>
       <c r="S12">
-        <v>0.0008230817462224417</v>
+        <v>0.004111933379247997</v>
       </c>
       <c r="T12">
-        <v>0.0009771230780324124</v>
+        <v>0.004991149242418982</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H13">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I13">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J13">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.672664</v>
       </c>
       <c r="O13">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P13">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q13">
-        <v>0.1404875594755556</v>
+        <v>0.456772894344</v>
       </c>
       <c r="R13">
-        <v>1.26438803528</v>
+        <v>4.110956049096</v>
       </c>
       <c r="S13">
-        <v>0.0005756690579839656</v>
+        <v>0.002902488026675669</v>
       </c>
       <c r="T13">
-        <v>0.0006834066293499038</v>
+        <v>0.003523099617465547</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H14">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I14">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J14">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N14">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O14">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P14">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q14">
-        <v>2.259359549093333</v>
+        <v>9.377821271403</v>
       </c>
       <c r="R14">
-        <v>20.33423594184</v>
+        <v>84.400391442627</v>
       </c>
       <c r="S14">
-        <v>0.009258068031994995</v>
+        <v>0.05958981869018855</v>
       </c>
       <c r="T14">
-        <v>0.01099073326990249</v>
+        <v>0.07233134659049667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H15">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I15">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J15">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N15">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O15">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P15">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q15">
-        <v>0.04557652822</v>
+        <v>0.133548709203</v>
       </c>
       <c r="R15">
-        <v>0.27345916932</v>
+        <v>0.8012922552179998</v>
       </c>
       <c r="S15">
-        <v>0.000186756728955436</v>
+        <v>0.0008486132479388659</v>
       </c>
       <c r="T15">
-        <v>0.0001478057399747699</v>
+        <v>0.0006867094671219913</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H16">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I16">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J16">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N16">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O16">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P16">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q16">
-        <v>2.489502858274444</v>
+        <v>7.463258201645999</v>
       </c>
       <c r="R16">
-        <v>22.40552572447</v>
+        <v>67.16932381481399</v>
       </c>
       <c r="S16">
-        <v>0.01020111510671235</v>
+        <v>0.04742404341084353</v>
       </c>
       <c r="T16">
-        <v>0.01211027341838277</v>
+        <v>0.05756427853064223</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H17">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I17">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J17">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N17">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O17">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P17">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q17">
-        <v>4.442574655356</v>
+        <v>2.942500698605333</v>
       </c>
       <c r="R17">
-        <v>26.655447932136</v>
+        <v>17.655004191632</v>
       </c>
       <c r="S17">
-        <v>0.0182041226740594</v>
+        <v>0.01869763541563127</v>
       </c>
       <c r="T17">
-        <v>0.01440737282924293</v>
+        <v>0.01513038275550749</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H18">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I18">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J18">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.672664</v>
       </c>
       <c r="O18">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P18">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q18">
-        <v>3.107167396932</v>
+        <v>2.077021259461334</v>
       </c>
       <c r="R18">
-        <v>18.643004381592</v>
+        <v>12.462127556768</v>
       </c>
       <c r="S18">
-        <v>0.01273208912637965</v>
+        <v>0.01319808905341305</v>
       </c>
       <c r="T18">
-        <v>0.01007661606237663</v>
+        <v>0.01068007448965819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H19">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I19">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J19">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N19">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O19">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P19">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q19">
-        <v>49.970320184196</v>
+        <v>42.64249124525267</v>
       </c>
       <c r="R19">
-        <v>299.821921105176</v>
+        <v>255.854947471516</v>
       </c>
       <c r="S19">
-        <v>0.2047609571621786</v>
+        <v>0.2709646780698771</v>
       </c>
       <c r="T19">
-        <v>0.1620549094031294</v>
+        <v>0.2192683299938914</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H20">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I20">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J20">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N20">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O20">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P20">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q20">
-        <v>1.008017386587</v>
+        <v>0.607267882186</v>
       </c>
       <c r="R20">
-        <v>4.032069546348</v>
+        <v>2.429071528744</v>
       </c>
       <c r="S20">
-        <v>0.004130503950201833</v>
+        <v>0.003858783607466284</v>
       </c>
       <c r="T20">
-        <v>0.002179349203793964</v>
+        <v>0.002081720376357785</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H21">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I21">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J21">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N21">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O21">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P21">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q21">
-        <v>55.06040637815549</v>
+        <v>33.93665898658534</v>
       </c>
       <c r="R21">
-        <v>330.362438268933</v>
+        <v>203.619953919512</v>
       </c>
       <c r="S21">
-        <v>0.2256183564598275</v>
+        <v>0.2156449027375021</v>
       </c>
       <c r="T21">
-        <v>0.1785621771968047</v>
+        <v>0.1745028098561004</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H22">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I22">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J22">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.750370666666667</v>
+        <v>1.734345333333333</v>
       </c>
       <c r="N22">
-        <v>5.251112</v>
+        <v>5.203036</v>
       </c>
       <c r="O22">
-        <v>0.0391111353954311</v>
+        <v>0.03579425885799617</v>
       </c>
       <c r="P22">
-        <v>0.03922717319114838</v>
+        <v>0.03588261565230796</v>
       </c>
       <c r="Q22">
-        <v>3.680813632951112</v>
+        <v>1.027944744721333</v>
       </c>
       <c r="R22">
-        <v>33.12732269656001</v>
+        <v>9.251502702492001</v>
       </c>
       <c r="S22">
-        <v>0.01508269148247388</v>
+        <v>0.00653190535292769</v>
       </c>
       <c r="T22">
-        <v>0.01790544620143382</v>
+        <v>0.007928560958295446</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H23">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I23">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J23">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.672664</v>
       </c>
       <c r="O23">
-        <v>0.02735459821956294</v>
+        <v>0.02526607271493867</v>
       </c>
       <c r="P23">
-        <v>0.02743575585531137</v>
+        <v>0.02532844107403216</v>
       </c>
       <c r="Q23">
-        <v>2.574386476702223</v>
+        <v>0.7255947600453333</v>
       </c>
       <c r="R23">
-        <v>23.16947829032</v>
+        <v>6.530352840408001</v>
       </c>
       <c r="S23">
-        <v>0.01054893859258543</v>
+        <v>0.004610672238497835</v>
       </c>
       <c r="T23">
-        <v>0.01252319273859379</v>
+        <v>0.005596528719643144</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H24">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I24">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J24">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.688264</v>
+        <v>25.13399766666667</v>
       </c>
       <c r="N24">
-        <v>59.064792</v>
+        <v>75.401993</v>
       </c>
       <c r="O24">
-        <v>0.4399241678743427</v>
+        <v>0.5187276151560003</v>
       </c>
       <c r="P24">
-        <v>0.4412293672812836</v>
+        <v>0.5200080749464381</v>
       </c>
       <c r="Q24">
-        <v>41.40199097277334</v>
+        <v>14.89689528303567</v>
       </c>
       <c r="R24">
-        <v>372.6179187549601</v>
+        <v>134.072057547321</v>
       </c>
       <c r="S24">
-        <v>0.1696509301672658</v>
+        <v>0.09465986429809753</v>
       </c>
       <c r="T24">
-        <v>0.2014014280317918</v>
+        <v>0.1149000886938831</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H25">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I25">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J25">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.397158</v>
+        <v>0.357931</v>
       </c>
       <c r="N25">
-        <v>0.794316</v>
+        <v>0.715862</v>
       </c>
       <c r="O25">
-        <v>0.008874291946950641</v>
+        <v>0.007387153308549907</v>
       </c>
       <c r="P25">
-        <v>0.005933747233062296</v>
+        <v>0.004936925480833206</v>
       </c>
       <c r="Q25">
-        <v>0.8351742911800001</v>
+        <v>0.212145345769</v>
       </c>
       <c r="R25">
-        <v>5.011045747080001</v>
+        <v>1.272872074614</v>
       </c>
       <c r="S25">
-        <v>0.003422253182066786</v>
+        <v>0.001348042612935271</v>
       </c>
       <c r="T25">
-        <v>0.002708489631327251</v>
+        <v>0.001090854551982207</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H26">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I26">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J26">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.69375366666667</v>
+        <v>20.00267533333333</v>
       </c>
       <c r="N26">
-        <v>65.081261</v>
+        <v>60.008026</v>
       </c>
       <c r="O26">
-        <v>0.4847358065637125</v>
+        <v>0.412824899962515</v>
       </c>
       <c r="P26">
-        <v>0.4861739564391943</v>
+        <v>0.4138439428463888</v>
       </c>
       <c r="Q26">
-        <v>45.61928839804779</v>
+        <v>11.85556566739133</v>
       </c>
       <c r="R26">
-        <v>410.57359558243</v>
+        <v>106.700091006522</v>
       </c>
       <c r="S26">
-        <v>0.1869319452629004</v>
+        <v>0.0753342368278874</v>
       </c>
       <c r="T26">
-        <v>0.2219166183385486</v>
+        <v>0.09144224489855117</v>
       </c>
     </row>
   </sheetData>
